--- a/Docs/EstDesc_2015-10-02.xlsx
+++ b/Docs/EstDesc_2015-10-02.xlsx
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>3.6339907727797</v>
+        <v>3.595020184544406</v>
       </c>
       <c r="D3">
-        <v>3.579680573737802</v>
+        <v>3.538486983273457</v>
       </c>
       <c r="E3">
-        <v>3.579484708205838</v>
+        <v>3.555613107387792</v>
       </c>
       <c r="F3">
-        <v>3.632670873279023</v>
+        <v>3.570327521300734</v>
       </c>
     </row>
     <row r="4">
@@ -452,13 +452,13 @@
         <v>3.405</v>
       </c>
       <c r="D4">
-        <v>3.387163928104573</v>
+        <v>3.377397709150323</v>
       </c>
       <c r="E4">
-        <v>3.477845730795115</v>
+        <v>3.438411170461952</v>
       </c>
       <c r="F4">
-        <v>3.633089268484172</v>
+        <v>3.476932361728414</v>
       </c>
     </row>
     <row r="5">
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.3272</v>
+        <v>1.2462</v>
       </c>
       <c r="D5">
-        <v>0.7262</v>
+        <v>0.6876</v>
       </c>
       <c r="E5">
-        <v>0.5434</v>
+        <v>0.5295</v>
       </c>
       <c r="F5">
-        <v>0.3119</v>
+        <v>0.4282</v>
       </c>
     </row>
     <row r="6">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>36.52099267202831</v>
+        <v>34.66387208559991</v>
       </c>
       <c r="D6">
-        <v>20.2869236338259</v>
+        <v>19.43296650981259</v>
       </c>
       <c r="E6">
-        <v>15.18202229149496</v>
+        <v>14.89096684301106</v>
       </c>
       <c r="F6">
-        <v>8.585813607811339</v>
+        <v>11.99194864642773</v>
       </c>
     </row>
     <row r="7">
@@ -524,13 +524,13 @@
         <v>1.47</v>
       </c>
       <c r="D7">
-        <v>2.000054186274515</v>
+        <v>1.997427643790854</v>
       </c>
       <c r="E7">
         <v>1.47</v>
       </c>
       <c r="F7">
-        <v>1.989892225734337</v>
+        <v>2.518190736136947</v>
       </c>
     </row>
     <row r="8">
@@ -548,13 +548,13 @@
         <v>2.86</v>
       </c>
       <c r="D8">
-        <v>3.065388388888889</v>
+        <v>3.065401326797384</v>
       </c>
       <c r="E8">
-        <v>3.248973582715751</v>
+        <v>3.22627712273566</v>
       </c>
       <c r="F8">
-        <v>3.590741441360525</v>
+        <v>3.306729593886657</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +572,13 @@
         <v>4.195</v>
       </c>
       <c r="D9">
-        <v>3.966822235294109</v>
+        <v>3.876854633986935</v>
       </c>
       <c r="E9">
-        <v>3.807305346109187</v>
+        <v>3.756211205158783</v>
       </c>
       <c r="F9">
-        <v>3.633202226341765</v>
+        <v>3.726100485100948</v>
       </c>
     </row>
     <row r="10">
@@ -596,13 +596,13 @@
         <v>9.44</v>
       </c>
       <c r="D10">
-        <v>7.195998444444443</v>
+        <v>7.041675915032662</v>
       </c>
       <c r="E10">
-        <v>9.439999999999998</v>
+        <v>9.44</v>
       </c>
       <c r="F10">
-        <v>8.019996640382791</v>
+        <v>5.824723511453243</v>
       </c>
     </row>
     <row r="11">
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.793899587598173</v>
+        <v>1.750747727635915</v>
       </c>
       <c r="D11">
-        <v>1.151099949346573</v>
+        <v>1.200696814293538</v>
       </c>
       <c r="E11">
-        <v>1.302697328098758</v>
+        <v>1.592921580452227</v>
       </c>
       <c r="F11">
-        <v>3.558764141441075</v>
+        <v>1.555169418473972</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="C12">
-        <v>4.755559267180407</v>
+        <v>5.247565104284139</v>
       </c>
       <c r="D12">
-        <v>1.811012841183681</v>
+        <v>2.123582596555144</v>
       </c>
       <c r="E12">
-        <v>4.449861773741201</v>
+        <v>5.041162971384198</v>
       </c>
       <c r="F12">
-        <v>31.62936415217175</v>
+        <v>3.702713076599865</v>
       </c>
     </row>
   </sheetData>
